--- a/research/time/Time Graphs.xlsx
+++ b/research/time/Time Graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -895,11 +895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138653104"/>
-        <c:axId val="-2138728304"/>
+        <c:axId val="-2088589200"/>
+        <c:axId val="2121943072"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2138653104"/>
+        <c:axId val="-2088589200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138728304"/>
+        <c:crossAx val="2121943072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138728304"/>
+        <c:axId val="2121943072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138653104"/>
+        <c:crossAx val="-2088589200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1399,11 +1399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121322288"/>
-        <c:axId val="2121317840"/>
+        <c:axId val="-2094793696"/>
+        <c:axId val="-2099178928"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2121322288"/>
+        <c:axId val="-2094793696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121317840"/>
+        <c:crossAx val="-2099178928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1453,7 +1453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121317840"/>
+        <c:axId val="-2099178928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121322288"/>
+        <c:crossAx val="-2094793696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1903,11 +1903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134011200"/>
-        <c:axId val="-2134008048"/>
+        <c:axId val="2123139376"/>
+        <c:axId val="-2100943248"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2134011200"/>
+        <c:axId val="2123139376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134008048"/>
+        <c:crossAx val="-2100943248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1957,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134008048"/>
+        <c:axId val="-2100943248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134011200"/>
+        <c:crossAx val="2123139376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2381,11 +2381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133976992"/>
-        <c:axId val="-2133973744"/>
+        <c:axId val="-2091891632"/>
+        <c:axId val="-2091227472"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2133976992"/>
+        <c:axId val="-2091891632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133973744"/>
+        <c:crossAx val="-2091227472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2435,7 +2435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133973744"/>
+        <c:axId val="-2091227472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,6 +2455,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2485,7 +2486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133976992"/>
+        <c:crossAx val="-2091891632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2884,11 +2885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136395936"/>
-        <c:axId val="-2136410160"/>
+        <c:axId val="-2091147760"/>
+        <c:axId val="-2091144608"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2136395936"/>
+        <c:axId val="-2091147760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136410160"/>
+        <c:crossAx val="-2091144608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2938,7 +2939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136410160"/>
+        <c:axId val="-2091144608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136395936"/>
+        <c:crossAx val="-2091147760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3388,11 +3389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136463520"/>
-        <c:axId val="-2136460368"/>
+        <c:axId val="-2091133408"/>
+        <c:axId val="-2090964752"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2136463520"/>
+        <c:axId val="-2091133408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,7 +3435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136460368"/>
+        <c:crossAx val="-2090964752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3442,7 +3443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136460368"/>
+        <c:axId val="-2090964752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3493,7 +3494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136463520"/>
+        <c:crossAx val="-2091133408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3892,11 +3893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136449248"/>
-        <c:axId val="-2136446096"/>
+        <c:axId val="-2090960384"/>
+        <c:axId val="-2090957232"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2136449248"/>
+        <c:axId val="-2090960384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3938,7 +3939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136446096"/>
+        <c:crossAx val="-2090957232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3946,7 +3947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136446096"/>
+        <c:axId val="-2090957232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,7 +3998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136449248"/>
+        <c:crossAx val="-2090960384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4396,11 +4397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2041659552"/>
-        <c:axId val="2041656288"/>
+        <c:axId val="-2134393440"/>
+        <c:axId val="-2134382432"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2041659552"/>
+        <c:axId val="-2134393440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4442,7 +4443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041656288"/>
+        <c:crossAx val="-2134382432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4450,7 +4451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2041656288"/>
+        <c:axId val="-2134382432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4500,7 +4501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041659552"/>
+        <c:crossAx val="-2134393440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9542,8 +9543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G19:BA245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="BC19" sqref="BC19"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="BA99" sqref="BA99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/research/time/Time Graphs.xlsx
+++ b/research/time/Time Graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-27780" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Iteracja</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Painter 2 builder 0</t>
+  </si>
+  <si>
+    <t>Długość rozgrywki</t>
+  </si>
+  <si>
+    <t>Malarz po raz pierwszy ma jedną dostępną opcję</t>
+  </si>
+  <si>
+    <t>Malarz po raz pierwszy ma dwie dostępne opcje</t>
+  </si>
+  <si>
+    <t>Budowniczy z zagnieżdżeniami</t>
+  </si>
+  <si>
+    <t>Budowniczy zachłanny</t>
   </si>
 </sst>
 </file>
@@ -895,11 +910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088589200"/>
-        <c:axId val="2121943072"/>
+        <c:axId val="-2117455888"/>
+        <c:axId val="-2117451712"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2088589200"/>
+        <c:axId val="-2117455888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121943072"/>
+        <c:crossAx val="-2117451712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121943072"/>
+        <c:axId val="-2117451712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088589200"/>
+        <c:crossAx val="-2117455888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1012,6 +1027,1362 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BT$3:$BT$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2081666304"/>
+        <c:axId val="-2081673696"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="-2081666304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2081673696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2081673696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2081666304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BT$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budowniczy z zagnieżdżeniami</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BT$3:$BT$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BU$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budowniczy zachłanny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BU$3:$BU$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2055274416"/>
+        <c:axId val="-2064484064"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="-2055274416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2064484064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2064484064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2055274416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1399,11 +2770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094793696"/>
-        <c:axId val="-2099178928"/>
+        <c:axId val="-2117429424"/>
+        <c:axId val="-2117426176"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2094793696"/>
+        <c:axId val="-2117429424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +2816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099178928"/>
+        <c:crossAx val="-2117426176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1453,7 +2824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099178928"/>
+        <c:axId val="-2117426176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +2875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094793696"/>
+        <c:crossAx val="-2117429424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1903,11 +3274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123139376"/>
-        <c:axId val="-2100943248"/>
+        <c:axId val="-2115686896"/>
+        <c:axId val="-2115683648"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2123139376"/>
+        <c:axId val="-2115686896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +3320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100943248"/>
+        <c:crossAx val="-2115683648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1957,7 +3328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100943248"/>
+        <c:axId val="-2115683648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +3379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123139376"/>
+        <c:crossAx val="-2115686896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2072,7 +3443,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2381,11 +3751,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091891632"/>
-        <c:axId val="-2091227472"/>
+        <c:axId val="-2115656896"/>
+        <c:axId val="-2115653648"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2091891632"/>
+        <c:axId val="-2115656896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +3797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091227472"/>
+        <c:crossAx val="-2115653648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2435,7 +3805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2091227472"/>
+        <c:axId val="-2115653648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +3856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091891632"/>
+        <c:crossAx val="-2115656896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2885,11 +4255,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091147760"/>
-        <c:axId val="-2091144608"/>
+        <c:axId val="-2118746400"/>
+        <c:axId val="-2118743152"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2091147760"/>
+        <c:axId val="-2118746400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,7 +4301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091144608"/>
+        <c:crossAx val="-2118743152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2939,7 +4309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2091144608"/>
+        <c:axId val="-2118743152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,7 +4360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091147760"/>
+        <c:crossAx val="-2118746400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3389,11 +4759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091133408"/>
-        <c:axId val="-2090964752"/>
+        <c:axId val="-2115630544"/>
+        <c:axId val="-2115627296"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2091133408"/>
+        <c:axId val="-2115630544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,7 +4805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090964752"/>
+        <c:crossAx val="-2115627296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3443,7 +4813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090964752"/>
+        <c:axId val="-2115627296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +4864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091133408"/>
+        <c:crossAx val="-2115630544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3893,11 +5263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2090960384"/>
-        <c:axId val="-2090957232"/>
+        <c:axId val="-2115595040"/>
+        <c:axId val="-2115591792"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2090960384"/>
+        <c:axId val="-2115595040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,7 +5309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090957232"/>
+        <c:crossAx val="-2115591792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3947,7 +5317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090957232"/>
+        <c:axId val="-2115591792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3998,7 +5368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090960384"/>
+        <c:crossAx val="-2115595040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4397,11 +5767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2134393440"/>
-        <c:axId val="-2134382432"/>
+        <c:axId val="-2117421216"/>
+        <c:axId val="-2117418064"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2134393440"/>
+        <c:axId val="-2117421216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4443,7 +5813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134382432"/>
+        <c:crossAx val="-2117418064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4451,7 +5821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134382432"/>
+        <c:axId val="-2117418064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4501,7 +5871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134393440"/>
+        <c:crossAx val="-2117421216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4550,7 +5920,495 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BF$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Malarz po raz pierwszy ma dwie dostępne opcje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BG$27:$BP$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BF$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Malarz po raz pierwszy ma jedną dostępną opcję</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BG$28:$BP$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BF$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Długość rozgrywki</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BG$29:$BP$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2101574224"/>
+        <c:axId val="-2101932240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2101574224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2101932240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2101932240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2101574224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4870,6 +6728,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5386,7 +7284,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5907,8 +7805,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6112,23 +8010,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6178,6 +8075,20 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6188,25 +8099,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -6238,8 +8130,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6303,17 +8195,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6382,20 +8263,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6428,7 +8308,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6949,7 +8829,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7470,7 +9350,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7991,7 +9871,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8512,7 +10392,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9001,6 +10881,1551 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9275,6 +12700,96 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>826460</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182803</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>826461</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>202044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9541,10 +13056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G19:BA245"/>
+  <dimension ref="G2:BU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="BA99" sqref="BA99"/>
+    <sheetView tabSelected="1" topLeftCell="BT23" zoomScale="132" workbookViewId="0">
+      <selection activeCell="BU28" sqref="BU28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9561,9 +13076,195 @@
     <col min="44" max="44" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="26" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BT2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>2</v>
+      </c>
+      <c r="BU3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS4">
+        <v>2</v>
+      </c>
+      <c r="BT4">
+        <v>3</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS5">
+        <v>3</v>
+      </c>
+      <c r="BT5">
+        <v>9</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS6">
+        <v>4</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS7">
+        <v>5</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS8">
+        <v>6</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS9">
+        <v>7</v>
+      </c>
+      <c r="BT9">
+        <v>8</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS10">
+        <v>8</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS11">
+        <v>9</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS12">
+        <v>10</v>
+      </c>
+      <c r="BT12">
+        <v>5</v>
+      </c>
+      <c r="BU12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS13">
+        <v>11</v>
+      </c>
+      <c r="BT13">
+        <v>17</v>
+      </c>
+      <c r="BU13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS14">
+        <v>12</v>
+      </c>
+      <c r="BT14">
+        <v>3</v>
+      </c>
+      <c r="BU14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS15">
+        <v>13</v>
+      </c>
+      <c r="BT15">
+        <v>3</v>
+      </c>
+      <c r="BU15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="71:73" x14ac:dyDescent="0.2">
+      <c r="BS16">
+        <v>14</v>
+      </c>
+      <c r="BT16">
+        <v>3</v>
+      </c>
+      <c r="BU16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:73" x14ac:dyDescent="0.2">
+      <c r="BS17">
+        <v>15</v>
+      </c>
+      <c r="BT17">
+        <v>3</v>
+      </c>
+      <c r="BU17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:73" x14ac:dyDescent="0.2">
+      <c r="BS18">
+        <v>16</v>
+      </c>
+      <c r="BT18">
+        <v>1</v>
+      </c>
+      <c r="BU18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>3</v>
       </c>
@@ -9597,8 +13298,17 @@
       <c r="AZ19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS19">
+        <v>17</v>
+      </c>
+      <c r="BT19">
+        <v>6</v>
+      </c>
+      <c r="BU19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
         <v>0</v>
       </c>
@@ -9629,8 +13339,17 @@
       <c r="BA20" s="1">
         <v>42504.959236111114</v>
       </c>
-    </row>
-    <row r="21" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS20">
+        <v>18</v>
+      </c>
+      <c r="BT20">
+        <v>1</v>
+      </c>
+      <c r="BU20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G21">
         <v>1</v>
       </c>
@@ -9667,8 +13386,17 @@
       <c r="BA21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS21">
+        <v>19</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G22">
         <v>2</v>
       </c>
@@ -9705,8 +13433,17 @@
       <c r="BA22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS22">
+        <v>20</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G23">
         <v>3</v>
       </c>
@@ -9743,8 +13480,17 @@
       <c r="BA23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS23">
+        <v>21</v>
+      </c>
+      <c r="BT23">
+        <v>1</v>
+      </c>
+      <c r="BU23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G24">
         <v>4</v>
       </c>
@@ -9781,8 +13527,17 @@
       <c r="BA24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS24">
+        <v>22</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G25">
         <v>5</v>
       </c>
@@ -9819,8 +13574,17 @@
       <c r="BA25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS25">
+        <v>23</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G26">
         <v>6</v>
       </c>
@@ -9857,8 +13621,17 @@
       <c r="BA26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS26">
+        <v>24</v>
+      </c>
+      <c r="BT26">
+        <v>10</v>
+      </c>
+      <c r="BU26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G27">
         <v>7</v>
       </c>
@@ -9895,8 +13668,50 @@
       <c r="BA27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BF27" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG27">
+        <v>50</v>
+      </c>
+      <c r="BH27">
+        <v>32</v>
+      </c>
+      <c r="BI27">
+        <v>27</v>
+      </c>
+      <c r="BJ27">
+        <v>16</v>
+      </c>
+      <c r="BK27">
+        <v>31</v>
+      </c>
+      <c r="BL27">
+        <v>8</v>
+      </c>
+      <c r="BM27">
+        <v>29</v>
+      </c>
+      <c r="BN27">
+        <v>8</v>
+      </c>
+      <c r="BO27">
+        <v>62</v>
+      </c>
+      <c r="BP27">
+        <v>20</v>
+      </c>
+      <c r="BS27">
+        <v>25</v>
+      </c>
+      <c r="BT27">
+        <v>5</v>
+      </c>
+      <c r="BU27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G28">
         <v>8</v>
       </c>
@@ -9933,8 +13748,50 @@
       <c r="BA28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BF28" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG28">
+        <v>54</v>
+      </c>
+      <c r="BH28">
+        <v>36</v>
+      </c>
+      <c r="BI28">
+        <v>31</v>
+      </c>
+      <c r="BJ28">
+        <v>20</v>
+      </c>
+      <c r="BK28">
+        <v>37</v>
+      </c>
+      <c r="BL28">
+        <v>12</v>
+      </c>
+      <c r="BM28">
+        <v>35</v>
+      </c>
+      <c r="BN28">
+        <v>12</v>
+      </c>
+      <c r="BO28">
+        <v>66</v>
+      </c>
+      <c r="BP28">
+        <v>21</v>
+      </c>
+      <c r="BS28">
+        <v>26</v>
+      </c>
+      <c r="BT28">
+        <v>3</v>
+      </c>
+      <c r="BU28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G29">
         <v>9</v>
       </c>
@@ -9971,8 +13828,50 @@
       <c r="BA29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BF29" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG29">
+        <v>102</v>
+      </c>
+      <c r="BH29">
+        <v>250</v>
+      </c>
+      <c r="BI29">
+        <v>245</v>
+      </c>
+      <c r="BJ29">
+        <v>47</v>
+      </c>
+      <c r="BK29">
+        <v>119</v>
+      </c>
+      <c r="BL29">
+        <v>127</v>
+      </c>
+      <c r="BM29">
+        <v>72</v>
+      </c>
+      <c r="BN29">
+        <v>58</v>
+      </c>
+      <c r="BO29">
+        <v>184</v>
+      </c>
+      <c r="BP29">
+        <v>114</v>
+      </c>
+      <c r="BS29">
+        <v>27</v>
+      </c>
+      <c r="BT29">
+        <v>5</v>
+      </c>
+      <c r="BU29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G30">
         <v>10</v>
       </c>
@@ -10009,8 +13908,17 @@
       <c r="BA30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS30">
+        <v>28</v>
+      </c>
+      <c r="BT30">
+        <v>0</v>
+      </c>
+      <c r="BU30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G31">
         <v>11</v>
       </c>
@@ -10047,8 +13955,17 @@
       <c r="BA31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS31">
+        <v>29</v>
+      </c>
+      <c r="BT31">
+        <v>0</v>
+      </c>
+      <c r="BU31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G32">
         <v>12</v>
       </c>
@@ -10085,8 +14002,17 @@
       <c r="BA32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS32">
+        <v>30</v>
+      </c>
+      <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G33">
         <v>13</v>
       </c>
@@ -10123,8 +14049,17 @@
       <c r="BA33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS33">
+        <v>31</v>
+      </c>
+      <c r="BT33">
+        <v>2</v>
+      </c>
+      <c r="BU33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G34">
         <v>14</v>
       </c>
@@ -10161,8 +14096,17 @@
       <c r="BA34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS34">
+        <v>32</v>
+      </c>
+      <c r="BT34">
+        <v>1</v>
+      </c>
+      <c r="BU34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G35">
         <v>15</v>
       </c>
@@ -10199,8 +14143,17 @@
       <c r="BA35">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="36" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS35">
+        <v>33</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+      <c r="BU35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G36">
         <v>16</v>
       </c>
@@ -10237,8 +14190,17 @@
       <c r="BA36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS36">
+        <v>34</v>
+      </c>
+      <c r="BT36">
+        <v>0</v>
+      </c>
+      <c r="BU36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G37">
         <v>17</v>
       </c>
@@ -10275,8 +14237,17 @@
       <c r="BA37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS37">
+        <v>35</v>
+      </c>
+      <c r="BT37">
+        <v>0</v>
+      </c>
+      <c r="BU37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G38">
         <v>18</v>
       </c>
@@ -10313,8 +14284,17 @@
       <c r="BA38">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="39" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS38">
+        <v>36</v>
+      </c>
+      <c r="BT38">
+        <v>0</v>
+      </c>
+      <c r="BU38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G39">
         <v>19</v>
       </c>
@@ -10351,8 +14331,17 @@
       <c r="BA39">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="40" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS39">
+        <v>37</v>
+      </c>
+      <c r="BT39">
+        <v>0</v>
+      </c>
+      <c r="BU39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G40">
         <v>20</v>
       </c>
@@ -10389,8 +14378,17 @@
       <c r="BA40">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="41" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS40">
+        <v>38</v>
+      </c>
+      <c r="BT40">
+        <v>0</v>
+      </c>
+      <c r="BU40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G41">
         <v>21</v>
       </c>
@@ -10427,8 +14425,17 @@
       <c r="BA41">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="42" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS41">
+        <v>39</v>
+      </c>
+      <c r="BT41">
+        <v>0</v>
+      </c>
+      <c r="BU41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G42">
         <v>22</v>
       </c>
@@ -10465,8 +14472,17 @@
       <c r="BA42">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="43" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS42">
+        <v>40</v>
+      </c>
+      <c r="BT42">
+        <v>0</v>
+      </c>
+      <c r="BU42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G43">
         <v>23</v>
       </c>
@@ -10503,8 +14519,17 @@
       <c r="BA43">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="44" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS43">
+        <v>41</v>
+      </c>
+      <c r="BT43">
+        <v>0</v>
+      </c>
+      <c r="BU43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G44">
         <v>24</v>
       </c>
@@ -10541,8 +14566,17 @@
       <c r="BA44">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="45" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS44">
+        <v>42</v>
+      </c>
+      <c r="BT44">
+        <v>0</v>
+      </c>
+      <c r="BU44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G45">
         <v>25</v>
       </c>
@@ -10579,8 +14613,17 @@
       <c r="BA45">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="46" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS45">
+        <v>43</v>
+      </c>
+      <c r="BT45">
+        <v>0</v>
+      </c>
+      <c r="BU45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G46">
         <v>26</v>
       </c>
@@ -10617,8 +14660,17 @@
       <c r="BA46">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="47" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS46">
+        <v>44</v>
+      </c>
+      <c r="BT46">
+        <v>0</v>
+      </c>
+      <c r="BU46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G47">
         <v>27</v>
       </c>
@@ -10655,8 +14707,17 @@
       <c r="BA47">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="48" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS47">
+        <v>45</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G48">
         <v>28</v>
       </c>
@@ -10693,8 +14754,17 @@
       <c r="BA48">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="49" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS48">
+        <v>46</v>
+      </c>
+      <c r="BT48">
+        <v>0</v>
+      </c>
+      <c r="BU48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G49">
         <v>29</v>
       </c>
@@ -10731,8 +14801,17 @@
       <c r="BA49">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="50" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS49">
+        <v>47</v>
+      </c>
+      <c r="BT49">
+        <v>4</v>
+      </c>
+      <c r="BU49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G50">
         <v>30</v>
       </c>
@@ -10769,8 +14848,17 @@
       <c r="BA50">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="51" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS50">
+        <v>48</v>
+      </c>
+      <c r="BT50">
+        <v>1</v>
+      </c>
+      <c r="BU50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G51">
         <v>31</v>
       </c>
@@ -10807,8 +14895,17 @@
       <c r="BA51">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="52" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS51">
+        <v>49</v>
+      </c>
+      <c r="BT51">
+        <v>1</v>
+      </c>
+      <c r="BU51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G52">
         <v>32</v>
       </c>
@@ -10845,8 +14942,17 @@
       <c r="BA52">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="53" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS52">
+        <v>50</v>
+      </c>
+      <c r="BT52">
+        <v>2</v>
+      </c>
+      <c r="BU52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G53">
         <v>33</v>
       </c>
@@ -10883,8 +14989,17 @@
       <c r="BA53">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="54" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS53">
+        <v>51</v>
+      </c>
+      <c r="BT53">
+        <v>1</v>
+      </c>
+      <c r="BU53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G54">
         <v>34</v>
       </c>
@@ -10921,8 +15036,17 @@
       <c r="BA54">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="55" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS54">
+        <v>52</v>
+      </c>
+      <c r="BT54">
+        <v>0</v>
+      </c>
+      <c r="BU54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G55">
         <v>35</v>
       </c>
@@ -10959,8 +15083,17 @@
       <c r="BA55">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="56" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS55">
+        <v>53</v>
+      </c>
+      <c r="BT55">
+        <v>0</v>
+      </c>
+      <c r="BU55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G56">
         <v>36</v>
       </c>
@@ -10997,8 +15130,17 @@
       <c r="BA56">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="57" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS56">
+        <v>54</v>
+      </c>
+      <c r="BT56">
+        <v>1</v>
+      </c>
+      <c r="BU56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G57">
         <v>37</v>
       </c>
@@ -11035,8 +15177,17 @@
       <c r="BA57">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="58" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS57">
+        <v>55</v>
+      </c>
+      <c r="BT57">
+        <v>2</v>
+      </c>
+      <c r="BU57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G58">
         <v>38</v>
       </c>
@@ -11073,8 +15224,17 @@
       <c r="BA58">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="59" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS58">
+        <v>56</v>
+      </c>
+      <c r="BT58">
+        <v>0</v>
+      </c>
+      <c r="BU58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G59">
         <v>39</v>
       </c>
@@ -11111,8 +15271,17 @@
       <c r="BA59">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="60" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS59">
+        <v>57</v>
+      </c>
+      <c r="BT59">
+        <v>0</v>
+      </c>
+      <c r="BU59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G60">
         <v>40</v>
       </c>
@@ -11149,8 +15318,17 @@
       <c r="BA60">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="61" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS60">
+        <v>58</v>
+      </c>
+      <c r="BT60">
+        <v>0</v>
+      </c>
+      <c r="BU60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G61">
         <v>41</v>
       </c>
@@ -11187,8 +15365,17 @@
       <c r="BA61">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="62" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS61">
+        <v>59</v>
+      </c>
+      <c r="BT61">
+        <v>0</v>
+      </c>
+      <c r="BU61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G62">
         <v>42</v>
       </c>
@@ -11225,8 +15412,17 @@
       <c r="BA62">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="63" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS62">
+        <v>60</v>
+      </c>
+      <c r="BT62">
+        <v>1</v>
+      </c>
+      <c r="BU62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G63">
         <v>43</v>
       </c>
@@ -11263,8 +15459,17 @@
       <c r="BA63">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="64" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS63">
+        <v>61</v>
+      </c>
+      <c r="BT63">
+        <v>1</v>
+      </c>
+      <c r="BU63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G64">
         <v>44</v>
       </c>
@@ -11301,8 +15506,17 @@
       <c r="BA64">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="65" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS64">
+        <v>62</v>
+      </c>
+      <c r="BT64">
+        <v>1</v>
+      </c>
+      <c r="BU64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G65">
         <v>45</v>
       </c>
@@ -11339,8 +15553,17 @@
       <c r="BA65">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="66" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS65">
+        <v>63</v>
+      </c>
+      <c r="BT65">
+        <v>1</v>
+      </c>
+      <c r="BU65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G66">
         <v>46</v>
       </c>
@@ -11377,8 +15600,17 @@
       <c r="BA66">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="67" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS66">
+        <v>64</v>
+      </c>
+      <c r="BT66">
+        <v>0</v>
+      </c>
+      <c r="BU66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G67">
         <v>47</v>
       </c>
@@ -11415,8 +15647,17 @@
       <c r="BA67">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="68" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS67">
+        <v>65</v>
+      </c>
+      <c r="BT67">
+        <v>0</v>
+      </c>
+      <c r="BU67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G68">
         <v>48</v>
       </c>
@@ -11453,8 +15694,17 @@
       <c r="BA68">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="69" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS68">
+        <v>66</v>
+      </c>
+      <c r="BT68">
+        <v>0</v>
+      </c>
+      <c r="BU68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G69">
         <v>49</v>
       </c>
@@ -11491,8 +15741,17 @@
       <c r="BA69">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="70" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS69">
+        <v>67</v>
+      </c>
+      <c r="BT69">
+        <v>0</v>
+      </c>
+      <c r="BU69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G70">
         <v>50</v>
       </c>
@@ -11529,8 +15788,17 @@
       <c r="BA70">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="71" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS70">
+        <v>68</v>
+      </c>
+      <c r="BT70">
+        <v>0</v>
+      </c>
+      <c r="BU70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G71">
         <v>51</v>
       </c>
@@ -11567,8 +15835,17 @@
       <c r="BA71">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="72" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS71">
+        <v>69</v>
+      </c>
+      <c r="BT71">
+        <v>0</v>
+      </c>
+      <c r="BU71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G72">
         <v>52</v>
       </c>
@@ -11605,8 +15882,17 @@
       <c r="BA72">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="73" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS72">
+        <v>70</v>
+      </c>
+      <c r="BT72">
+        <v>0</v>
+      </c>
+      <c r="BU72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G73">
         <v>53</v>
       </c>
@@ -11643,8 +15929,17 @@
       <c r="BA73">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="74" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS73">
+        <v>71</v>
+      </c>
+      <c r="BT73">
+        <v>0</v>
+      </c>
+      <c r="BU73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G74">
         <v>54</v>
       </c>
@@ -11681,8 +15976,17 @@
       <c r="BA74">
         <v>4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="75" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS74">
+        <v>72</v>
+      </c>
+      <c r="BT74">
+        <v>0</v>
+      </c>
+      <c r="BU74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G75">
         <v>55</v>
       </c>
@@ -11719,8 +16023,17 @@
       <c r="BA75">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="76" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS75">
+        <v>73</v>
+      </c>
+      <c r="BT75">
+        <v>0</v>
+      </c>
+      <c r="BU75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G76">
         <v>56</v>
       </c>
@@ -11757,8 +16070,17 @@
       <c r="BA76">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="77" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS76">
+        <v>74</v>
+      </c>
+      <c r="BT76">
+        <v>0</v>
+      </c>
+      <c r="BU76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G77">
         <v>57</v>
       </c>
@@ -11795,8 +16117,17 @@
       <c r="BA77">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="78" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS77">
+        <v>75</v>
+      </c>
+      <c r="BT77">
+        <v>0</v>
+      </c>
+      <c r="BU77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G78">
         <v>58</v>
       </c>
@@ -11833,8 +16164,17 @@
       <c r="BA78">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="79" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS78">
+        <v>76</v>
+      </c>
+      <c r="BT78">
+        <v>0</v>
+      </c>
+      <c r="BU78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G79">
         <v>59</v>
       </c>
@@ -11871,8 +16211,17 @@
       <c r="BA79">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="80" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS79">
+        <v>77</v>
+      </c>
+      <c r="BT79">
+        <v>0</v>
+      </c>
+      <c r="BU79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G80">
         <v>60</v>
       </c>
@@ -11909,8 +16258,17 @@
       <c r="BA80">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="81" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS80">
+        <v>78</v>
+      </c>
+      <c r="BT80">
+        <v>0</v>
+      </c>
+      <c r="BU80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G81">
         <v>61</v>
       </c>
@@ -11947,8 +16305,17 @@
       <c r="BA81">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="82" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS81">
+        <v>79</v>
+      </c>
+      <c r="BT81">
+        <v>0</v>
+      </c>
+      <c r="BU81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G82">
         <v>62</v>
       </c>
@@ -11985,8 +16352,17 @@
       <c r="BA82">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="83" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS82">
+        <v>80</v>
+      </c>
+      <c r="BT82">
+        <v>0</v>
+      </c>
+      <c r="BU82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G83">
         <v>63</v>
       </c>
@@ -12023,8 +16399,17 @@
       <c r="BA83">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="84" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS83">
+        <v>81</v>
+      </c>
+      <c r="BT83">
+        <v>0</v>
+      </c>
+      <c r="BU83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G84">
         <v>64</v>
       </c>
@@ -12061,8 +16446,17 @@
       <c r="BA84">
         <v>6.7000000000000004E-2</v>
       </c>
-    </row>
-    <row r="85" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS84">
+        <v>82</v>
+      </c>
+      <c r="BT84">
+        <v>0</v>
+      </c>
+      <c r="BU84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G85">
         <v>65</v>
       </c>
@@ -12099,8 +16493,17 @@
       <c r="BA85">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="86" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS85">
+        <v>83</v>
+      </c>
+      <c r="BT85">
+        <v>0</v>
+      </c>
+      <c r="BU85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G86">
         <v>66</v>
       </c>
@@ -12137,8 +16540,17 @@
       <c r="BA86">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="87" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS86">
+        <v>84</v>
+      </c>
+      <c r="BT86">
+        <v>0</v>
+      </c>
+      <c r="BU86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G87">
         <v>67</v>
       </c>
@@ -12175,8 +16587,14 @@
       <c r="BA87">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="88" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS87">
+        <v>85</v>
+      </c>
+      <c r="BT87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G88">
         <v>68</v>
       </c>
@@ -12213,8 +16631,14 @@
       <c r="BA88">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="89" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS88">
+        <v>86</v>
+      </c>
+      <c r="BT88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G89">
         <v>69</v>
       </c>
@@ -12251,8 +16675,14 @@
       <c r="BA89">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="90" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS89">
+        <v>87</v>
+      </c>
+      <c r="BT89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G90">
         <v>70</v>
       </c>
@@ -12289,8 +16719,14 @@
       <c r="BA90">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="91" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS90">
+        <v>88</v>
+      </c>
+      <c r="BT90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G91">
         <v>71</v>
       </c>
@@ -12327,8 +16763,14 @@
       <c r="BA91">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="92" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS91">
+        <v>89</v>
+      </c>
+      <c r="BT91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G92">
         <v>72</v>
       </c>
@@ -12365,8 +16807,14 @@
       <c r="BA92">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="93" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS92">
+        <v>90</v>
+      </c>
+      <c r="BT92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G93">
         <v>73</v>
       </c>
@@ -12403,8 +16851,14 @@
       <c r="BA93">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="94" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS93">
+        <v>91</v>
+      </c>
+      <c r="BT93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G94">
         <v>74</v>
       </c>
@@ -12441,8 +16895,14 @@
       <c r="BA94">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="95" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS94">
+        <v>92</v>
+      </c>
+      <c r="BT94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G95">
         <v>75</v>
       </c>
@@ -12479,8 +16939,14 @@
       <c r="BA95">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="96" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS95">
+        <v>93</v>
+      </c>
+      <c r="BT95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="7:73" x14ac:dyDescent="0.2">
       <c r="G96">
         <v>76</v>
       </c>
@@ -12517,8 +16983,14 @@
       <c r="BA96">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="97" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS96">
+        <v>94</v>
+      </c>
+      <c r="BT96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G97">
         <v>77</v>
       </c>
@@ -12555,8 +17027,14 @@
       <c r="BA97">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="98" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS97">
+        <v>95</v>
+      </c>
+      <c r="BT97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G98">
         <v>78</v>
       </c>
@@ -12593,8 +17071,14 @@
       <c r="BA98">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="99" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS98">
+        <v>96</v>
+      </c>
+      <c r="BT98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G99">
         <v>79</v>
       </c>
@@ -12631,8 +17115,14 @@
       <c r="BA99">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="100" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS99">
+        <v>97</v>
+      </c>
+      <c r="BT99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G100">
         <v>80</v>
       </c>
@@ -12669,8 +17159,14 @@
       <c r="BA100">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS100">
+        <v>98</v>
+      </c>
+      <c r="BT100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G101">
         <v>81</v>
       </c>
@@ -12707,8 +17203,14 @@
       <c r="BA101">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS101">
+        <v>99</v>
+      </c>
+      <c r="BT101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G102">
         <v>82</v>
       </c>
@@ -12745,8 +17247,14 @@
       <c r="BA102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS102">
+        <v>100</v>
+      </c>
+      <c r="BT102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G103">
         <v>83</v>
       </c>
@@ -12783,8 +17291,14 @@
       <c r="BA103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS103">
+        <v>101</v>
+      </c>
+      <c r="BT103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G104">
         <v>84</v>
       </c>
@@ -12821,8 +17335,14 @@
       <c r="BA104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS104">
+        <v>102</v>
+      </c>
+      <c r="BT104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G105">
         <v>85</v>
       </c>
@@ -12859,8 +17379,14 @@
       <c r="BA105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS105">
+        <v>103</v>
+      </c>
+      <c r="BT105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G106">
         <v>86</v>
       </c>
@@ -12897,8 +17423,14 @@
       <c r="BA106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS106">
+        <v>104</v>
+      </c>
+      <c r="BT106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G107">
         <v>87</v>
       </c>
@@ -12935,8 +17467,14 @@
       <c r="BA107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS107">
+        <v>105</v>
+      </c>
+      <c r="BT107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G108">
         <v>88</v>
       </c>
@@ -12973,8 +17511,14 @@
       <c r="BA108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS108">
+        <v>106</v>
+      </c>
+      <c r="BT108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G109">
         <v>89</v>
       </c>
@@ -13011,8 +17555,14 @@
       <c r="BA109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS109">
+        <v>107</v>
+      </c>
+      <c r="BT109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G110">
         <v>90</v>
       </c>
@@ -13049,8 +17599,14 @@
       <c r="BA110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS110">
+        <v>108</v>
+      </c>
+      <c r="BT110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G111">
         <v>91</v>
       </c>
@@ -13087,8 +17643,14 @@
       <c r="BA111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS111">
+        <v>109</v>
+      </c>
+      <c r="BT111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G112">
         <v>92</v>
       </c>
@@ -13125,8 +17687,14 @@
       <c r="BA112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS112">
+        <v>110</v>
+      </c>
+      <c r="BT112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G113">
         <v>93</v>
       </c>
@@ -13163,8 +17731,14 @@
       <c r="BA113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS113">
+        <v>111</v>
+      </c>
+      <c r="BT113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G114">
         <v>94</v>
       </c>
@@ -13201,8 +17775,14 @@
       <c r="BA114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS114">
+        <v>112</v>
+      </c>
+      <c r="BT114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G115">
         <v>95</v>
       </c>
@@ -13239,8 +17819,14 @@
       <c r="BA115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="7:53" x14ac:dyDescent="0.2">
+      <c r="BS115">
+        <v>113</v>
+      </c>
+      <c r="BT115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G116">
         <v>96</v>
       </c>
@@ -13278,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G117">
         <v>97</v>
       </c>
@@ -13316,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G118">
         <v>98</v>
       </c>
@@ -13354,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G119">
         <v>99</v>
       </c>
@@ -13392,7 +17978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G120">
         <v>100</v>
       </c>
@@ -13430,7 +18016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G121">
         <v>101</v>
       </c>
@@ -13438,7 +18024,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="122" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G122">
         <v>102</v>
       </c>
@@ -13446,7 +18032,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="123" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G123">
         <v>103</v>
       </c>
@@ -13454,7 +18040,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="124" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G124">
         <v>104</v>
       </c>
@@ -13462,7 +18048,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="125" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G125">
         <v>105</v>
       </c>
@@ -13470,7 +18056,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="126" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G126">
         <v>106</v>
       </c>
@@ -13478,7 +18064,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="127" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G127">
         <v>107</v>
       </c>
@@ -13486,7 +18072,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="128" spans="7:53" x14ac:dyDescent="0.2">
+    <row r="128" spans="7:72" x14ac:dyDescent="0.2">
       <c r="G128">
         <v>108</v>
       </c>

--- a/research/time/Time Graphs.xlsx
+++ b/research/time/Time Graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27780" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,14 +114,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,11 +934,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117455888"/>
-        <c:axId val="-2117451712"/>
+        <c:axId val="-2070686944"/>
+        <c:axId val="-2133820240"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2117455888"/>
+        <c:axId val="-2070686944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117451712"/>
+        <c:crossAx val="-2133820240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -965,7 +989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117451712"/>
+        <c:axId val="-2133820240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117455888"/>
+        <c:crossAx val="-2070686944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1484,11 +1508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081666304"/>
-        <c:axId val="-2081673696"/>
+        <c:axId val="-2102853456"/>
+        <c:axId val="-2099526752"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2081666304"/>
+        <c:axId val="-2102853456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,7 +1554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081673696"/>
+        <c:crossAx val="-2099526752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1538,7 +1562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2081673696"/>
+        <c:axId val="-2099526752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,7 +1612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081666304"/>
+        <c:crossAx val="-2102853456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2235,16 +2259,72 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2055274416"/>
-        <c:axId val="-2064484064"/>
+        <c:axId val="-2136472576"/>
+        <c:axId val="-2136551264"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2055274416"/>
+        <c:axId val="-2136472576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pozycja w ciągu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2281,7 +2361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064484064"/>
+        <c:crossAx val="-2136551264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2289,7 +2369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064484064"/>
+        <c:axId val="-2136551264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,6 +2389,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Liczba wybrań</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2339,7 +2475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055274416"/>
+        <c:crossAx val="-2136472576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2770,16 +2906,72 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117429424"/>
-        <c:axId val="-2117426176"/>
+        <c:axId val="-2071638576"/>
+        <c:axId val="-2071659792"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2117429424"/>
+        <c:axId val="-2071638576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Długość ciągu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2816,7 +3008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117426176"/>
+        <c:crossAx val="-2071659792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2824,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117426176"/>
+        <c:axId val="-2071659792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,6 +3036,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość sekund potrzebna</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> na podjęcie decyzji</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2875,7 +3128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117429424"/>
+        <c:crossAx val="-2071638576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3274,16 +3527,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115686896"/>
-        <c:axId val="-2115683648"/>
+        <c:axId val="-2129569664"/>
+        <c:axId val="-2128887056"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2115686896"/>
+        <c:axId val="-2129569664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Długość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ciągu</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3320,7 +3634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115683648"/>
+        <c:crossAx val="-2128887056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3328,7 +3642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115683648"/>
+        <c:axId val="-2128887056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3348,6 +3662,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość sekund potrzebna</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> na podjęcie decyzji</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3379,7 +3754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115686896"/>
+        <c:crossAx val="-2129569664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3443,6 +3818,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3751,16 +4127,72 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115656896"/>
-        <c:axId val="-2115653648"/>
+        <c:axId val="-2128996704"/>
+        <c:axId val="-2080713824"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2115656896"/>
+        <c:axId val="-2128996704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Długość ciągu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3797,7 +4229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115653648"/>
+        <c:crossAx val="-2080713824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3805,7 +4237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115653648"/>
+        <c:axId val="-2080713824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3825,6 +4257,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość sekund potrzebna na podjęcie decyzji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3856,7 +4344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115656896"/>
+        <c:crossAx val="-2128996704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4255,16 +4743,72 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2118746400"/>
-        <c:axId val="-2118743152"/>
+        <c:axId val="-2080684192"/>
+        <c:axId val="-2080681040"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2118746400"/>
+        <c:axId val="-2080684192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Długość ciągu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4301,7 +4845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118743152"/>
+        <c:crossAx val="-2080681040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4309,7 +4853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118743152"/>
+        <c:axId val="-2080681040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4329,6 +4873,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość sekund potrzebna na podjęcie decyzji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4360,7 +4960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118746400"/>
+        <c:crossAx val="-2080684192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4759,16 +5359,72 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115630544"/>
-        <c:axId val="-2115627296"/>
+        <c:axId val="-2080864992"/>
+        <c:axId val="-2080861840"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2115630544"/>
+        <c:axId val="-2080864992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Długość ciągu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4805,7 +5461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115627296"/>
+        <c:crossAx val="-2080861840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4813,7 +5469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115627296"/>
+        <c:axId val="-2080861840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4833,6 +5489,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość sekund potrzebna na podjęcie decyzji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4864,7 +5576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115630544"/>
+        <c:crossAx val="-2080864992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5263,16 +5975,72 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115595040"/>
-        <c:axId val="-2115591792"/>
+        <c:axId val="-2070667520"/>
+        <c:axId val="-2070664368"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2115595040"/>
+        <c:axId val="-2070667520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Długość ciągu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5309,7 +6077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115591792"/>
+        <c:crossAx val="-2070664368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5317,7 +6085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115591792"/>
+        <c:axId val="-2070664368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5337,6 +6105,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość sekund potrzebna na podjęcie decyzji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5368,7 +6192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115595040"/>
+        <c:crossAx val="-2070667520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5767,16 +6591,72 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117421216"/>
-        <c:axId val="-2117418064"/>
+        <c:axId val="-2070638480"/>
+        <c:axId val="-2070635328"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2117421216"/>
+        <c:axId val="-2070638480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Długość ciągu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5813,7 +6693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117418064"/>
+        <c:crossAx val="-2070635328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5821,7 +6701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117418064"/>
+        <c:axId val="-2070635328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5841,6 +6721,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość sekund potrzebna na podjęcie decyzji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5871,7 +6807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117421216"/>
+        <c:crossAx val="-2070638480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6143,16 +7079,72 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2101574224"/>
-        <c:axId val="-2101932240"/>
+        <c:axId val="-2070539808"/>
+        <c:axId val="-2070536672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101574224"/>
+        <c:axId val="-2070539808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Numer rozgrywki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6189,7 +7181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101932240"/>
+        <c:crossAx val="-2070536672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6197,7 +7189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101932240"/>
+        <c:axId val="-2070536672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6217,6 +7209,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Długość ciągu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6247,7 +7295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101574224"/>
+        <c:crossAx val="-2070539808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12494,14 +13542,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>824422</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>648</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>138192</xdr:colOff>
+      <xdr:colOff>59882</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85458</xdr:rowOff>
+      <xdr:rowOff>31129</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12523,15 +13571,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>115808</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85457</xdr:rowOff>
+      <xdr:colOff>492760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31126</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12555,13 +13603,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>27981</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>140561</xdr:rowOff>
+      <xdr:rowOff>140560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>742626</xdr:colOff>
+      <xdr:colOff>152441</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>171040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12589,9 +13637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>142498</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85456</xdr:rowOff>
+      <xdr:colOff>73660</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>81926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12615,13 +13663,13 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>824423</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>646</xdr:rowOff>
+      <xdr:rowOff>645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>170481</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85457</xdr:rowOff>
+      <xdr:colOff>85283</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12649,9 +13697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>773190</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85454</xdr:rowOff>
+      <xdr:colOff>682181</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31124</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12675,13 +13723,13 @@
       <xdr:col>49</xdr:col>
       <xdr:colOff>1075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>199755</xdr:rowOff>
+      <xdr:rowOff>199754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>746285</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80074</xdr:rowOff>
+      <xdr:colOff>671635</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27034</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12709,8 +13757,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>73660</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12762,16 +13810,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>826461</xdr:colOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>961</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>202044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>74621</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>39484</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13058,8 +14106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G2:BU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT23" zoomScale="132" workbookViewId="0">
-      <selection activeCell="BU28" sqref="BU28"/>
+    <sheetView tabSelected="1" topLeftCell="BO11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="BY23" sqref="BY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13220,7 +14268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="71:73" x14ac:dyDescent="0.2">
+    <row r="15" spans="71:73" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BS15">
         <v>13</v>
       </c>
